--- a/blueshift/data/_raw/pviscore.xlsx
+++ b/blueshift/data/_raw/pviscore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="20" windowWidth="17860" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="1260" yWindow="20" windowWidth="25620" windowHeight="18580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +171,11 @@
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -207,7 +212,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -321,8 +326,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -337,8 +344,9 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -395,6 +403,7 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -451,6 +460,7 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -780,18 +790,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D21"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="7" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -825,8 +836,11 @@
       <c r="K1" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -860,8 +874,11 @@
       <c r="K2" s="2">
         <v>0.52700000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -895,8 +912,11 @@
       <c r="K3" s="2">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="2">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -919,7 +939,7 @@
         <v>49.35</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -942,7 +962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -965,7 +985,7 @@
         <v>48.91</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -988,7 +1008,7 @@
         <v>48.85</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1031,7 @@
         <v>49.47</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1054,7 @@
         <v>48.65</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1057,7 +1077,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1">
+    <row r="11" spans="1:12" s="1" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1074,7 +1094,7 @@
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1117,7 @@
         <v>73.23</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +1140,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1143,7 +1163,7 @@
         <v>41.38</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1166,7 +1186,7 @@
         <v>56.27</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1209,7 @@
         <v>43.97</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1212,7 +1232,7 @@
         <v>53.67</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1235,7 +1255,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1258,7 +1278,7 @@
         <v>46.04</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1292,8 +1312,11 @@
       <c r="K20">
         <v>0.52300000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1327,8 +1350,35 @@
       <c r="K21">
         <v>0.48399999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="P22" s="14">
+        <v>59938290</v>
+      </c>
+      <c r="Q22">
+        <v>119383377</v>
+      </c>
+      <c r="R22">
+        <f>P22/Q22</f>
+        <v>0.50206562677482314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="P23" s="14">
+        <v>59704886</v>
+      </c>
+      <c r="Q23">
+        <v>119383377</v>
+      </c>
+      <c r="R23">
+        <f>P23/Q23</f>
+        <v>0.50011054721630133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1359,8 +1409,18 @@
       <c r="J25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="P25" s="14">
+        <v>1364067</v>
+      </c>
+      <c r="Q25">
+        <v>2685187</v>
+      </c>
+      <c r="R25">
+        <f>P25/Q25</f>
+        <v>0.50799702218132292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1391,8 +1451,18 @@
       <c r="J26" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="P26" s="14">
+        <v>1321120</v>
+      </c>
+      <c r="Q26">
+        <v>2685187</v>
+      </c>
+      <c r="R26">
+        <f>P26/Q26</f>
+        <v>0.49200297781867708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1406,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1420,7 +1490,7 @@
         <v>3.1551716605608293</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1434,7 +1504,7 @@
         <v>0.96451280733777511</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1448,7 +1518,7 @@
         <v>11.908610053778679</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1462,7 +1532,7 @@
         <v>22.690038344158371</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>6</v>
       </c>
